--- a/Toolbox function.xlsx
+++ b/Toolbox function.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409CD849-A106-4C41-9AC7-2230EF4C4664}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" tabRatio="944" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" tabRatio="944" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="about" sheetId="3" r:id="rId1"/>
@@ -17,20 +18,28 @@
     <sheet name="TLM" sheetId="9" r:id="rId8"/>
     <sheet name="exmple files" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="260">
   <si>
     <t>method</t>
   </si>
   <si>
     <t>Its function</t>
-  </si>
-  <si>
-    <t>List of methods of the matlab toolbox for KUKA iiwa manipulator</t>
   </si>
   <si>
     <t>net_establishConnection</t>
@@ -589,18 +598,6 @@
     <t>sendJointsPositionsGetActualEEFpos</t>
   </si>
   <si>
-    <t>send distintation position for the joints of the robot, returns back external torques, applicable only in real-time motion</t>
-  </si>
-  <si>
-    <t>send distintation position for the joints of the robot, returns back measured torques applicable only in real-time motion</t>
-  </si>
-  <si>
-    <t>send distintation position for the joints of the robot, returns back joint position measurments from encoders, applicable only in real-time motion</t>
-  </si>
-  <si>
-    <t>send distintation position for the joints of the robot returns back EEF position measurments from robot applicable only in real-time motion</t>
-  </si>
-  <si>
     <t>sendEEfPositionMTorque</t>
   </si>
   <si>
@@ -715,21 +712,6 @@
     <t>sendJointsVelocitiesGetActualEEfPos</t>
   </si>
   <si>
-    <t>send distintation position for the EEF of the robot, returns back external torques, applicable only in real-time motion</t>
-  </si>
-  <si>
-    <t>send distintation position for the EEF of the robot, returns back measured torques applicable only in real-time motion</t>
-  </si>
-  <si>
-    <t>send distintation position for the EEF of the robot, returns back joint position measurments from encoders, applicable only in real-time motion</t>
-  </si>
-  <si>
-    <t>send distintation position for the EEF of the robot returns back EEF position measurments from robot applicable only in real-time motion</t>
-  </si>
-  <si>
-    <t>Send distnination position for joints angles to the robot,</t>
-  </si>
-  <si>
     <t>Send reference velocities for joints of the robot,</t>
   </si>
   <si>
@@ -791,12 +773,54 @@
   </si>
   <si>
     <t>Total List of Methods (TLM)</t>
+  </si>
+  <si>
+    <t>List of methods of the Matlab toolbox for KUKA iiwa manipulator</t>
+  </si>
+  <si>
+    <t>Establish a plot of communication delay between PC and controller</t>
+  </si>
+  <si>
+    <t>turn off the connection to the KUKA iiwa controller</t>
+  </si>
+  <si>
+    <t>move on a path defined in joint space, the path is defined by a matrix. This matrix represents a stream of points in joint space on which the robot has to move, each column of this matrix is the joint angles at some instance in time.</t>
+  </si>
+  <si>
+    <t>Send destination position for joints angles, and waits for the acknowledgment that the message has been processed</t>
+  </si>
+  <si>
+    <t>Send destination position for joints angles to the robot,</t>
+  </si>
+  <si>
+    <t>send destination position for the joints of the robot returns back EEF position measurments from robot applicable only in real-time motion</t>
+  </si>
+  <si>
+    <t>send destination position for the EEF of the robot, returns back external torques, applicable only in real-time motion</t>
+  </si>
+  <si>
+    <t>send destination position for the EEF of the robot, returns back measured torques applicable only in real-time motion</t>
+  </si>
+  <si>
+    <t>send destination position for the EEF of the robot, returns back joint position measurments from encoders, applicable only in real-time motion</t>
+  </si>
+  <si>
+    <t>send destination position for the EEF of the robot returns back EEF position measurments from robot applicable only in real-time motion</t>
+  </si>
+  <si>
+    <t>send destination position for the joints of the robot, returns back external torques, applicable only in real-time motion</t>
+  </si>
+  <si>
+    <t>send destination position for the joints of the robot, returns back measured torques applicable only in real-time motion</t>
+  </si>
+  <si>
+    <t>send destination position for the joints of the robot, returns back joint position measurments from encoders, applicable only in real-time motion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1220,24 +1244,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1279,6 +1285,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1382,6 +1406,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1417,6 +1458,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1592,28 +1650,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
+    <row r="1" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1625,19 +1683,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A4:XFD5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="44.42578125" customWidth="1"/>
+    <col min="2" max="3" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,50 +1703,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1697,20 +1755,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B27" sqref="B2:C27"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
-    <col min="3" max="3" width="55.85546875" customWidth="1"/>
+    <col min="2" max="2" width="44.5" customWidth="1"/>
+    <col min="3" max="3" width="55.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1718,307 +1776,307 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A27" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B14" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="25" t="s">
+      <c r="B16" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="25" t="s">
+      <c r="C21" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="25" t="s">
+      <c r="C22" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="25" t="s">
+      <c r="C23" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="27" t="s">
+      <c r="C24" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="27" t="s">
+      <c r="C26" s="21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="27" t="s">
+      <c r="C27" s="21" t="s">
         <v>229</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2027,20 +2085,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="59.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59.33203125" customWidth="1"/>
+    <col min="3" max="3" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
@@ -2048,396 +2106,396 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>1+A2</f>
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A37" si="0">1+A3</f>
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
+      <c r="C5" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C7" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="C8" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="25" t="s">
+    <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C9" s="25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="25" t="s">
+    <row r="10" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C10" s="25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C12" s="25" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="25" t="s">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C13" s="25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="25" t="s">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C14" s="25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="25" t="s">
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C15" s="25" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="25" t="s">
+    <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C16" s="25" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="25" t="s">
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C17" s="25" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="25" t="s">
+    <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C18" s="25" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="27"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="27"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="27" t="s">
+      <c r="C23" s="27"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="27"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="C20" s="27"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="27" t="s">
+      <c r="C25" s="27"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="C21" s="27"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="27" t="s">
+      <c r="C26" s="27"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="27"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="27"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="27"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="27"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="27"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="27"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="27"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" s="27"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" s="27"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" s="27"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="C27" s="27"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="27" t="s">
+      <c r="C32" s="27"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="27"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="27"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="27"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C28" s="27"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="27"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" s="27"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="27" t="s">
+      <c r="C36" s="27"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="27" t="s">
         <v>212</v>
-      </c>
-      <c r="C31" s="27"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="27"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C33" s="27"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="C34" s="27"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="C35" s="27"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="C36" s="27"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>217</v>
       </c>
       <c r="C37" s="27"/>
     </row>
@@ -2447,20 +2505,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" customWidth="1"/>
     <col min="3" max="3" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2468,49 +2526,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="4" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="48" x14ac:dyDescent="0.2">
       <c r="B5" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:3" ht="96" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" tooltip="moveWaitForDTWhenInterrupted.m" display="https://github.com/Modi1987/KST-Kuka-Sunrise-Toolbox/blob/master/Matlab_Client1.6/moveWaitForDTWhenInterrupted.m"/>
+    <hyperlink ref="B6" r:id="rId1" tooltip="moveWaitForDTWhenInterrupted.m" display="https://github.com/Modi1987/KST-Kuka-Sunrise-Toolbox/blob/master/Matlab_Client1.6/moveWaitForDTWhenInterrupted.m" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2518,19 +2576,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="44.42578125" customWidth="1"/>
+    <col min="2" max="3" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2538,123 +2596,123 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2663,19 +2721,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="44.42578125" customWidth="1"/>
+    <col min="2" max="3" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2683,198 +2741,198 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A18" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2884,1284 +2942,1284 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="58" style="2" customWidth="1"/>
-    <col min="4" max="4" width="68.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="68.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="60" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C1" s="61"/>
       <c r="D1" s="62"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>A6+1</f>
         <v>2</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" ref="A8:A71" si="0">A7+1</f>
         <v>3</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="25" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="25" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="25" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="57" t="s">
-        <v>194</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="59" t="s">
+      <c r="D32" s="49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="D29" s="38" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="59" t="s">
+      <c r="D34" s="49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="D30" s="38" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="D33" s="55" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="59" t="s">
+      <c r="D35" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="D35" s="55" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B55" s="24"/>
       <c r="C55" s="27" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D55" s="27"/>
     </row>
-    <row r="56" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="27" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D56" s="27"/>
     </row>
-    <row r="57" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="27" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D57" s="27"/>
     </row>
-    <row r="58" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="27" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D58" s="27"/>
     </row>
-    <row r="59" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="27" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D59" s="27"/>
     </row>
-    <row r="60" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="27" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D60" s="27"/>
     </row>
-    <row r="61" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="27" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D61" s="27"/>
     </row>
-    <row r="62" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="27" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D62" s="27"/>
     </row>
-    <row r="63" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="27" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D63" s="27"/>
     </row>
-    <row r="64" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="27" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D64" s="27"/>
     </row>
-    <row r="65" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="27" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D65" s="27"/>
     </row>
-    <row r="66" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="27" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D66" s="27"/>
     </row>
-    <row r="67" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D67" s="27"/>
     </row>
-    <row r="68" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="27" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D68" s="27"/>
     </row>
-    <row r="69" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="27" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D69" s="27"/>
     </row>
-    <row r="70" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="27" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D70" s="27"/>
     </row>
-    <row r="71" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="27" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D71" s="27"/>
     </row>
-    <row r="72" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" ref="A72:A118" si="1">A71+1</f>
         <v>67</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="27" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D72" s="27"/>
     </row>
-    <row r="73" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="27" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D73" s="27"/>
     </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="C74" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C87" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="49" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="C87" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D94" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D95" s="8"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D96" s="8"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D98" s="8"/>
     </row>
-    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D103" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D103" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4170,305 +4228,305 @@
       <c r="C104" s="3"/>
       <c r="D104" s="8"/>
     </row>
-    <row r="105" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B105" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C105" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D105" s="49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" s="18" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="18" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B108" s="45"/>
-      <c r="C108" s="46" t="s">
+      <c r="B108" s="39"/>
+      <c r="C108" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D108" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="D108" s="47" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B109" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="C109" s="52" t="s">
+      <c r="B109" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C109" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="D109" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="D109" s="53" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="B110" s="54"/>
+      <c r="B110" s="48"/>
       <c r="C110" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D117" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D117" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B118" s="10"/>
       <c r="C118" s="11" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="16"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="16"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="16"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="16"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="16"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="16"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="16"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="16"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="16"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="16"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="16"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="16"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="16"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="16"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="16"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="16"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="16"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="16"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="16"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="16"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="16"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="16"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="16"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="16"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="16"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="16"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="16"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="16"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="16"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="16"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="16"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="16"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="16"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="16"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="16"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="16"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="16"/>
     </row>
   </sheetData>
@@ -4482,262 +4540,262 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" customWidth="1"/>
-    <col min="3" max="3" width="63.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" customWidth="1"/>
+    <col min="3" max="3" width="63.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27">
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="27">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="27">
         <f t="shared" ref="A4:A20" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="27" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="C5" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="27" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C7" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="27">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="35" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17" s="27">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="35" t="s">
+      <c r="C17" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" tooltip="Tutorial_softRealTimeJointsVelControl.m" display="https://github.com/Modi1987/KST-Kuka-Sunrise-Toolbox/blob/master/Matlab_Client1.6/Tutorial_softRealTimeJointsVelControl.m"/>
-    <hyperlink ref="B18" r:id="rId2" tooltip="Tutorial_realTimeImpedencePlotTorqueFeedBack.m" display="https://github.com/Modi1987/KST-Kuka-Sunrise-Toolbox/blob/master/Matlab_Client1.6/Tutorial_realTimeImpedencePlotTorqueFeedBack.m"/>
+    <hyperlink ref="B19" r:id="rId1" tooltip="Tutorial_softRealTimeJointsVelControl.m" display="https://github.com/Modi1987/KST-Kuka-Sunrise-Toolbox/blob/master/Matlab_Client1.6/Tutorial_softRealTimeJointsVelControl.m" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B18" r:id="rId2" tooltip="Tutorial_realTimeImpedencePlotTorqueFeedBack.m" display="https://github.com/Modi1987/KST-Kuka-Sunrise-Toolbox/blob/master/Matlab_Client1.6/Tutorial_realTimeImpedencePlotTorqueFeedBack.m" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/Toolbox function.xlsx
+++ b/Toolbox function.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409CD849-A106-4C41-9AC7-2230EF4C4664}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" tabRatio="944" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" tabRatio="944" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="about" sheetId="3" r:id="rId1"/>
@@ -18,28 +17,20 @@
     <sheet name="TLM" sheetId="9" r:id="rId8"/>
     <sheet name="exmple files" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="256">
   <si>
     <t>method</t>
   </si>
   <si>
     <t>Its function</t>
+  </si>
+  <si>
+    <t>List of methods of the matlab toolbox for KUKA iiwa manipulator</t>
   </si>
   <si>
     <t>net_establishConnection</t>
@@ -598,6 +589,18 @@
     <t>sendJointsPositionsGetActualEEFpos</t>
   </si>
   <si>
+    <t>send distintation position for the joints of the robot, returns back external torques, applicable only in real-time motion</t>
+  </si>
+  <si>
+    <t>send distintation position for the joints of the robot, returns back measured torques applicable only in real-time motion</t>
+  </si>
+  <si>
+    <t>send distintation position for the joints of the robot, returns back joint position measurments from encoders, applicable only in real-time motion</t>
+  </si>
+  <si>
+    <t>send distintation position for the joints of the robot returns back EEF position measurments from robot applicable only in real-time motion</t>
+  </si>
+  <si>
     <t>sendEEfPositionMTorque</t>
   </si>
   <si>
@@ -712,6 +715,21 @@
     <t>sendJointsVelocitiesGetActualEEfPos</t>
   </si>
   <si>
+    <t>send distintation position for the EEF of the robot, returns back external torques, applicable only in real-time motion</t>
+  </si>
+  <si>
+    <t>send distintation position for the EEF of the robot, returns back measured torques applicable only in real-time motion</t>
+  </si>
+  <si>
+    <t>send distintation position for the EEF of the robot, returns back joint position measurments from encoders, applicable only in real-time motion</t>
+  </si>
+  <si>
+    <t>send distintation position for the EEF of the robot returns back EEF position measurments from robot applicable only in real-time motion</t>
+  </si>
+  <si>
+    <t>Send distnination position for joints angles to the robot,</t>
+  </si>
+  <si>
     <t>Send reference velocities for joints of the robot,</t>
   </si>
   <si>
@@ -773,54 +791,12 @@
   </si>
   <si>
     <t>Total List of Methods (TLM)</t>
-  </si>
-  <si>
-    <t>List of methods of the Matlab toolbox for KUKA iiwa manipulator</t>
-  </si>
-  <si>
-    <t>Establish a plot of communication delay between PC and controller</t>
-  </si>
-  <si>
-    <t>turn off the connection to the KUKA iiwa controller</t>
-  </si>
-  <si>
-    <t>move on a path defined in joint space, the path is defined by a matrix. This matrix represents a stream of points in joint space on which the robot has to move, each column of this matrix is the joint angles at some instance in time.</t>
-  </si>
-  <si>
-    <t>Send destination position for joints angles, and waits for the acknowledgment that the message has been processed</t>
-  </si>
-  <si>
-    <t>Send destination position for joints angles to the robot,</t>
-  </si>
-  <si>
-    <t>send destination position for the joints of the robot returns back EEF position measurments from robot applicable only in real-time motion</t>
-  </si>
-  <si>
-    <t>send destination position for the EEF of the robot, returns back external torques, applicable only in real-time motion</t>
-  </si>
-  <si>
-    <t>send destination position for the EEF of the robot, returns back measured torques applicable only in real-time motion</t>
-  </si>
-  <si>
-    <t>send destination position for the EEF of the robot, returns back joint position measurments from encoders, applicable only in real-time motion</t>
-  </si>
-  <si>
-    <t>send destination position for the EEF of the robot returns back EEF position measurments from robot applicable only in real-time motion</t>
-  </si>
-  <si>
-    <t>send destination position for the joints of the robot, returns back external torques, applicable only in real-time motion</t>
-  </si>
-  <si>
-    <t>send destination position for the joints of the robot, returns back measured torques applicable only in real-time motion</t>
-  </si>
-  <si>
-    <t>send destination position for the joints of the robot, returns back joint position measurments from encoders, applicable only in real-time motion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1244,6 +1220,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1285,24 +1279,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1406,23 +1382,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1458,23 +1417,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1650,28 +1592,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1683,19 +1625,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A5" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="44.5" customWidth="1"/>
+    <col min="2" max="3" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1703,50 +1645,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1755,20 +1697,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:C27"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B27" sqref="B2:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.5" customWidth="1"/>
-    <col min="3" max="3" width="55.83203125" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="55.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1776,307 +1718,307 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A27" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B13" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="25" t="s">
+      <c r="B15" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B18" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2085,20 +2027,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="59.33203125" customWidth="1"/>
-    <col min="3" max="3" width="44.5" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
@@ -2106,396 +2048,396 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>1+A2</f>
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A37" si="0">1+A3</f>
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>89</v>
-      </c>
       <c r="C7" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>93</v>
-      </c>
       <c r="C10" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C11" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>174</v>
-      </c>
       <c r="C18" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C19" s="27"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C20" s="27"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C21" s="27"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C22" s="27"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C23" s="27"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="27"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="27"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="27"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="27"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="C25" s="27"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="C26" s="27"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>195</v>
-      </c>
       <c r="C27" s="27"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C28" s="27"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C29" s="27"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C30" s="27"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C31" s="27"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C32" s="27"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C33" s="27"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C34" s="27"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C35" s="27"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C36" s="27"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C37" s="27"/>
     </row>
@@ -2505,20 +2447,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
     <col min="3" max="3" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2526,49 +2468,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="96" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="37" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" tooltip="moveWaitForDTWhenInterrupted.m" display="https://github.com/Modi1987/KST-Kuka-Sunrise-Toolbox/blob/master/Matlab_Client1.6/moveWaitForDTWhenInterrupted.m" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1" tooltip="moveWaitForDTWhenInterrupted.m" display="https://github.com/Modi1987/KST-Kuka-Sunrise-Toolbox/blob/master/Matlab_Client1.6/moveWaitForDTWhenInterrupted.m"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2576,19 +2518,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="44.5" customWidth="1"/>
+    <col min="2" max="3" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2596,123 +2538,123 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2721,19 +2663,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="44.5" customWidth="1"/>
+    <col min="2" max="3" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2741,198 +2683,198 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A18" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="16" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2942,1284 +2884,1284 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="58" style="2" customWidth="1"/>
-    <col min="4" max="4" width="68.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="68.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="60" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C1" s="61"/>
       <c r="D1" s="62"/>
     </row>
-    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-    </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="48" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D6" s="49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>A6+1</f>
         <v>2</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ref="A8:A71" si="0">A7+1</f>
         <v>3</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="25" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="25" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="25" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="25" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B21" s="24"/>
-      <c r="C21" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C21" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B22" s="24"/>
-      <c r="C22" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C22" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B23" s="24"/>
-      <c r="C23" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C23" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B24" s="24"/>
-      <c r="C24" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C24" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B25" s="24"/>
-      <c r="C25" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C25" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B26" s="24"/>
-      <c r="C26" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C26" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B27" s="24"/>
-      <c r="C27" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C27" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B28" s="24"/>
-      <c r="C28" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C28" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B29" s="24"/>
-      <c r="C29" s="53" t="s">
-        <v>218</v>
+      <c r="C29" s="59" t="s">
+        <v>223</v>
       </c>
       <c r="D29" s="38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="55" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="53" t="s">
-        <v>219</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="D32" s="49" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="D35" s="49" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="23" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="23" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B55" s="24"/>
       <c r="C55" s="27" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D55" s="27"/>
     </row>
-    <row r="56" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="27" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D56" s="27"/>
     </row>
-    <row r="57" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="27" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D57" s="27"/>
     </row>
-    <row r="58" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="27" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D58" s="27"/>
     </row>
-    <row r="59" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="27" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D59" s="27"/>
     </row>
-    <row r="60" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="27" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D60" s="27"/>
     </row>
-    <row r="61" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="27" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D61" s="27"/>
     </row>
-    <row r="62" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="27" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D62" s="27"/>
     </row>
-    <row r="63" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="27" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D63" s="27"/>
     </row>
-    <row r="64" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="27" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D64" s="27"/>
     </row>
-    <row r="65" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="27" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D65" s="27"/>
     </row>
-    <row r="66" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="27" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D66" s="27"/>
     </row>
-    <row r="67" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="27" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D67" s="27"/>
     </row>
-    <row r="68" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="27" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D68" s="27"/>
     </row>
-    <row r="69" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="27" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D69" s="27"/>
     </row>
-    <row r="70" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="27" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D70" s="27"/>
     </row>
-    <row r="71" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="27" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D71" s="27"/>
     </row>
-    <row r="72" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" ref="A72:A118" si="1">A71+1</f>
         <v>67</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="27" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D72" s="27"/>
     </row>
-    <row r="73" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="27" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D73" s="27"/>
     </row>
-    <row r="74" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="C74" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C87" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="C87" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D95" s="8"/>
     </row>
-    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D96" s="8"/>
     </row>
-    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D98" s="8"/>
     </row>
-    <row r="99" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4228,305 +4170,305 @@
       <c r="C104" s="3"/>
       <c r="D104" s="8"/>
     </row>
-    <row r="105" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C105" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D105" s="43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C105" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D105" s="49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" s="18" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="18" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B108" s="39"/>
-      <c r="C108" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D108" s="41" t="s">
+      <c r="B108" s="45"/>
+      <c r="C108" s="46" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D108" s="47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B109" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="C109" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D109" s="47" t="s">
+      <c r="B109" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C109" s="52" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D109" s="53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="B110" s="48"/>
+      <c r="B110" s="54"/>
       <c r="C110" s="36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B118" s="10"/>
       <c r="C118" s="11" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="16"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="16"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="16"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="16"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="16"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="16"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="16"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="16"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="16"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="16"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="16"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="16"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="16"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="16"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="16"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="16"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="16"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="16"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="16"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="16"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="16"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="16"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="16"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="16"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="16"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="16"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="16"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="16"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="16"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="16"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="16"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="16"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="16"/>
     </row>
   </sheetData>
@@ -4540,262 +4482,262 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" customWidth="1"/>
-    <col min="3" max="3" width="63.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="3" max="3" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <f t="shared" ref="A4:A20" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C6" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="27">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="27">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="27">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="27">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C14" s="36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="27">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" tooltip="Tutorial_softRealTimeJointsVelControl.m" display="https://github.com/Modi1987/KST-Kuka-Sunrise-Toolbox/blob/master/Matlab_Client1.6/Tutorial_softRealTimeJointsVelControl.m" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="B18" r:id="rId2" tooltip="Tutorial_realTimeImpedencePlotTorqueFeedBack.m" display="https://github.com/Modi1987/KST-Kuka-Sunrise-Toolbox/blob/master/Matlab_Client1.6/Tutorial_realTimeImpedencePlotTorqueFeedBack.m" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B19" r:id="rId1" tooltip="Tutorial_softRealTimeJointsVelControl.m" display="https://github.com/Modi1987/KST-Kuka-Sunrise-Toolbox/blob/master/Matlab_Client1.6/Tutorial_softRealTimeJointsVelControl.m"/>
+    <hyperlink ref="B18" r:id="rId2" tooltip="Tutorial_realTimeImpedencePlotTorqueFeedBack.m" display="https://github.com/Modi1987/KST-Kuka-Sunrise-Toolbox/blob/master/Matlab_Client1.6/Tutorial_realTimeImpedencePlotTorqueFeedBack.m"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
